--- a/image/devicedefinition.xlsx
+++ b/image/devicedefinition.xlsx
@@ -1009,43 +1009,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="157.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="158.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.7890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.90625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.1171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.26171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="39.765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.64453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/devicedefinition.xlsx
+++ b/image/devicedefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="274">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -366,10 +366,6 @@
   </si>
   <si>
     <t>DeviceDefinition.udiDeviceIdentifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1009,43 +1005,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="158.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="157.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.26171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.7890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.90625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.1171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.64453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2337,13 +2333,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2394,30 +2390,30 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2446,7 +2442,7 @@
         <v>93</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>95</v>
@@ -2499,7 +2495,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2517,16 +2513,16 @@
         <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2548,10 +2544,10 @@
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>95</v>
@@ -2606,7 +2602,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2629,7 +2625,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2652,13 +2648,13 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2709,7 +2705,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>47</v>
@@ -2732,7 +2728,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2758,10 +2754,10 @@
         <v>60</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2812,7 +2808,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>47</v>
@@ -2835,7 +2831,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2861,10 +2857,10 @@
         <v>60</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2915,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>47</v>
@@ -2938,7 +2934,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2961,13 +2957,13 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3018,7 +3014,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3033,15 +3029,15 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3067,10 +3063,10 @@
         <v>108</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3121,7 +3117,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3144,7 +3140,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3167,13 +3163,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3224,30 +3220,30 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3276,7 +3272,7 @@
         <v>93</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>95</v>
@@ -3329,7 +3325,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3347,16 +3343,16 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3378,10 +3374,10 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>95</v>
@@ -3436,7 +3432,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3459,11 +3455,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3482,13 +3478,13 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3539,7 +3535,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>47</v>
@@ -3562,7 +3558,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3588,10 +3584,10 @@
         <v>66</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3618,54 +3614,54 @@
         <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3688,13 +3684,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3745,7 +3741,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3760,15 +3756,15 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3791,13 +3787,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3824,14 +3820,14 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
       </c>
@@ -3848,7 +3844,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3871,7 +3867,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3897,10 +3893,10 @@
         <v>108</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3951,7 +3947,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3974,7 +3970,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3997,13 +3993,13 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4054,30 +4050,30 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4106,7 +4102,7 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>95</v>
@@ -4159,7 +4155,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4177,16 +4173,16 @@
         <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4208,10 +4204,10 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>95</v>
@@ -4266,7 +4262,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4289,11 +4285,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4312,13 +4308,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4369,7 +4365,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>47</v>
@@ -4392,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4415,13 +4411,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4472,7 +4468,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4487,7 +4483,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4495,7 +4491,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4518,13 +4514,13 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4575,7 +4571,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4598,7 +4594,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4621,13 +4617,13 @@
         <v>48</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4654,11 +4650,11 @@
         <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>38</v>
@@ -4676,7 +4672,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4699,7 +4695,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4722,13 +4718,13 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4779,7 +4775,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -4802,7 +4798,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4825,13 +4821,13 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="L37" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4882,7 +4878,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4905,7 +4901,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4928,13 +4924,13 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4985,7 +4981,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5008,7 +5004,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5034,10 +5030,10 @@
         <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5088,7 +5084,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5111,7 +5107,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5134,13 +5130,13 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5191,30 +5187,30 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5243,7 +5239,7 @@
         <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>95</v>
@@ -5296,7 +5292,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5314,16 +5310,16 @@
         <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5345,10 +5341,10 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>95</v>
@@ -5403,7 +5399,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5426,7 +5422,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5449,13 +5445,13 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5506,7 +5502,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>47</v>
@@ -5529,7 +5525,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5552,13 +5548,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5609,7 +5605,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5632,7 +5628,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5658,10 +5654,10 @@
         <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5712,7 +5708,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5735,7 +5731,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5758,13 +5754,13 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5815,30 +5811,30 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5867,7 +5863,7 @@
         <v>93</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>95</v>
@@ -5920,7 +5916,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -5938,16 +5934,16 @@
         <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -5969,10 +5965,10 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>95</v>
@@ -6027,7 +6023,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6050,7 +6046,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6073,13 +6069,13 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6130,7 +6126,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>47</v>
@@ -6153,7 +6149,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6176,13 +6172,13 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6233,7 +6229,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6256,7 +6252,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6279,13 +6275,13 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6336,7 +6332,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6359,7 +6355,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6382,13 +6378,13 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6439,7 +6435,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6454,15 +6450,15 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6485,16 +6481,16 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6544,7 +6540,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6559,15 +6555,15 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6593,13 +6589,13 @@
         <v>60</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -6649,7 +6645,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6664,15 +6660,15 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6698,10 +6694,10 @@
         <v>60</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6752,7 +6748,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -6775,7 +6771,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6798,13 +6794,13 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6855,7 +6851,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -6873,12 +6869,12 @@
         <v>38</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6901,13 +6897,13 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6958,7 +6954,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -6981,7 +6977,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7004,13 +7000,13 @@
         <v>48</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7061,7 +7057,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7084,7 +7080,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7110,10 +7106,10 @@
         <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7164,7 +7160,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7187,7 +7183,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7210,13 +7206,13 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7267,30 +7263,30 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7319,7 +7315,7 @@
         <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>95</v>
@@ -7372,7 +7368,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7390,16 +7386,16 @@
         <v>38</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7421,10 +7417,10 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>95</v>
@@ -7479,7 +7475,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7502,7 +7498,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7525,13 +7521,13 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7582,7 +7578,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>47</v>
@@ -7605,7 +7601,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7628,13 +7624,13 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7685,7 +7681,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7708,7 +7704,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7731,13 +7727,13 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7788,7 +7784,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
